--- a/outputfiles/Charts/Graphs/classCount.xlsx
+++ b/outputfiles/Charts/Graphs/classCount.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\University\uol-inf co7506\Git\Assignment3\CodeAnalysisToolkit\outputfiles\Graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\University\uol-inf co7506\Git\Assignment3\CodeAnalysisToolkit\outputfiles\Charts\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3228,11 +3228,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="339466056"/>
-        <c:axId val="339469192"/>
+        <c:axId val="341861392"/>
+        <c:axId val="341860216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="339466056"/>
+        <c:axId val="341861392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,7 +3275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339469192"/>
+        <c:crossAx val="341860216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3283,7 +3283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339469192"/>
+        <c:axId val="341860216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,7 +3334,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339466056"/>
+        <c:crossAx val="341861392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3931,15 +3931,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
+      <xdr:colOff>276223</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>166685</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5953,7 +5953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
